--- a/CashFlow/MAS_cashflow.xlsx
+++ b/CashFlow/MAS_cashflow.xlsx
@@ -886,19 +886,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3385000000.0</v>
+        <v>-146000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3193000000.0</v>
+        <v>-89000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2402000000.0</v>
+        <v>19000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1592000000.0</v>
+        <v>74000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>879000000.0</v>
+        <v>102000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>58000000.0</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3596000000.0</v>
+        <v>88000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3414000000.0</v>
+        <v>332000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2480000000.0</v>
+        <v>302000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1545000000.0</v>
+        <v>318000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>784000000.0</v>
+        <v>146000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-27000000.0</v>
